--- a/static/export/pandas_simple.xlsx
+++ b/static/export/pandas_simple.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>correct</t>
   </si>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -408,30 +408,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0.38</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0.57</v>
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>0.22</v>
       </c>
     </row>
   </sheetData>
